--- a/sample_pivot.xlsx
+++ b/sample_pivot.xlsx
@@ -467,7 +467,7 @@
   <dimension ref="A1:E1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
